--- a/Config Files/changeofname_nodes_config.xlsx
+++ b/Config Files/changeofname_nodes_config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63BB5FFD-0C70-4B53-9C64-2A2B40BE8D76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADD360-BBBF-42D8-AA1C-F5DAA3B2B758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="23">
   <si>
     <t>Field_Name</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>ZMCA_NCA_INC24_STRUCT</t>
+  </si>
+  <si>
+    <t>NA</t>
+  </si>
+  <si>
+    <t>Combined Value</t>
   </si>
 </sst>
 </file>
@@ -156,7 +162,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -179,11 +185,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -203,6 +220,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -495,7 +515,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
@@ -580,7 +600,7 @@
         <v>9</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G3" s="7" t="s">
         <v>19</v>
@@ -605,7 +625,7 @@
         <v>10</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="7" t="s">
         <v>19</v>
@@ -630,7 +650,7 @@
         <v>11</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>19</v>
@@ -638,8 +658,31 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
     </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:A5">
+  <conditionalFormatting sqref="A2:A6">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -647,6 +690,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -889,15 +941,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -910,6 +953,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF50D774-F534-48A0-8571-FEFCA733ADC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03E67C8-859E-44CA-8BC0-35B4485E8365}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -928,14 +979,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF50D774-F534-48A0-8571-FEFCA733ADC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21555EC8-1146-4501-858E-C1C8E370EFF8}">
   <ds:schemaRefs>

--- a/Config Files/changeofname_nodes_config.xlsx
+++ b/Config Files/changeofname_nodes_config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MCA Portal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7ADD360-BBBF-42D8-AA1C-F5DAA3B2B758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8E2A3F-418A-4240-9598-752602FAC686}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -690,15 +690,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010020AB8D80EE38534F9519E3E4DE1A635C" ma:contentTypeVersion="16" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="2fb15c294a817fdcd94150ccc0adbbf4">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca" xmlns:ns3="aeca75af-2390-46f4-9168-0f31f2cf789f" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="b55b215397fc5f6eb14b023f8b46d6e1" ns2:_="" ns3:_="">
     <xsd:import namespace="4e2288e5-9a95-4d9a-bfd5-449f3e66e3ca"/>
@@ -941,6 +932,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -953,14 +953,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF50D774-F534-48A0-8571-FEFCA733ADC1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C03E67C8-859E-44CA-8BC0-35B4485E8365}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -979,6 +971,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CF50D774-F534-48A0-8571-FEFCA733ADC1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{21555EC8-1146-4501-858E-C1C8E370EFF8}">
   <ds:schemaRefs>
